--- a/lista.xlsx
+++ b/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abissal\Documents\GitHub\automacao-preco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9218DC82-1C5D-4758-96F0-A01E0A375254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA91619-5DFF-49A1-A101-99B197E5E5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CD3F9E8B-8E7C-43BA-8194-A874F6873E6D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Preço máximo</t>
+  </si>
+  <si>
+    <t>Iphone 13</t>
+  </si>
+  <si>
+    <t>TV</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,19 +448,25 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F3" s="2"/>
     </row>
